--- a/medicine/Psychotrope/Joseph_Baurac/Joseph_Baurac.xlsx
+++ b/medicine/Psychotrope/Joseph_Baurac/Joseph_Baurac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Léon Baurac, né à Ribérac le 13 juillet 1834[1],[2] et mort à Villiers-le-Bel, en Seine-et-Oise, le 25 novembre 1908[3], est l'inventeur d'un procédé pour guérir les vignes[2].
-Propriétaire du château du Bouchillon à Grand-Brassac, il a été maire de cette commune de 1884 à 1892[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Léon Baurac, né à Ribérac le 13 juillet 1834, et mort à Villiers-le-Bel, en Seine-et-Oise, le 25 novembre 1908, est l'inventeur d'un procédé pour guérir les vignes.
+Propriétaire du château du Bouchillon à Grand-Brassac, il a été maire de cette commune de 1884 à 1892.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Procédé Baurac pour la guérison de la Maladie de la Vigne - Le Phylloxéra reconnu comme étant l'effet de la Maladie de la Vigne - Moyen infaillible pour combattre et pour empêcher le retour de ce fléau, suivi d'un Aperçu sur la Maladie des Vers à soie et d'une courte Notice sur la Maladie de la Pomme de terre, Imprimerie G. Gounouilhou, Bordeaux, septembre 1880, lire en ligne sur Gallica.</t>
         </is>
